--- a/results/outcome_reg_annual.xlsx
+++ b/results/outcome_reg_annual.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ihzhang/Documents/GitHub/Municipal-Boundary-Changes/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C9867D-B21C-6C40-8E6F-371EB69C1B8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82717B19-66EA-104B-9A7C-453CACC4754B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="17660" windowHeight="10740" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14720" yWindow="2620" windowWidth="13120" windowHeight="11780" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -434,7 +434,7 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -488,40 +488,40 @@
         <v>14</v>
       </c>
       <c r="B2">
-        <v>2.1872144487386602E-3</v>
+        <v>2.3750955873720302E-3</v>
       </c>
       <c r="C2">
-        <v>8.0797406828305302E-3</v>
+        <v>1.8331509838220401E-3</v>
       </c>
       <c r="D2">
-        <v>0.27070354539799701</v>
+        <v>1.29563555229917</v>
       </c>
       <c r="E2">
-        <v>0.78804661025349998</v>
+        <v>0.20271738897581701</v>
       </c>
       <c r="F2">
-        <v>0.16576969817077999</v>
+        <v>0.120342483440084</v>
       </c>
       <c r="G2">
-        <v>8.0777187227949396E-2</v>
+        <v>4.0260688728785202E-2</v>
       </c>
       <c r="H2">
-        <v>1.33865667814592E-4</v>
+        <v>8.6258221655421995E-4</v>
       </c>
       <c r="J2">
-        <v>0.13299306901842101</v>
+        <v>4.5200600201136303E-2</v>
       </c>
       <c r="K2">
-        <v>171197</v>
+        <v>195468</v>
       </c>
       <c r="L2">
-        <v>-189879.933351491</v>
+        <v>-640285.76277670299</v>
       </c>
       <c r="M2">
-        <v>-30779.406782001799</v>
+        <v>-474188.37112214603</v>
       </c>
       <c r="N2">
-        <v>110769.966675745</v>
+        <v>336453.88138835097</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -529,40 +529,40 @@
         <v>15</v>
       </c>
       <c r="B3">
-        <v>3.0680668811434398E-3</v>
+        <v>7.1511267373902902E-3</v>
       </c>
       <c r="C3">
-        <v>9.6601241881866407E-3</v>
+        <v>2.3770976472736001E-3</v>
       </c>
       <c r="D3">
-        <v>0.31760118414371802</v>
+        <v>3.00834370249461</v>
       </c>
       <c r="E3">
-        <v>0.75248173858061596</v>
+        <v>4.5836577537125504E-3</v>
       </c>
       <c r="F3">
-        <v>0.16576969817077999</v>
+        <v>0.120342483440084</v>
       </c>
       <c r="G3">
-        <v>8.0777187227949396E-2</v>
+        <v>4.0260688728785202E-2</v>
       </c>
       <c r="H3">
-        <v>1.33865667814592E-4</v>
+        <v>8.6258221655421995E-4</v>
       </c>
       <c r="J3">
-        <v>0.13299306901842101</v>
+        <v>4.5200600201136303E-2</v>
       </c>
       <c r="K3">
-        <v>171197</v>
+        <v>195468</v>
       </c>
       <c r="L3">
-        <v>-189879.933351491</v>
+        <v>-640285.76277670299</v>
       </c>
       <c r="M3">
-        <v>-30779.406782001799</v>
+        <v>-474188.37112214603</v>
       </c>
       <c r="N3">
-        <v>110769.966675745</v>
+        <v>336453.88138835097</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -570,40 +570,40 @@
         <v>16</v>
       </c>
       <c r="B4">
-        <v>-7.2246588448615602E-3</v>
+        <v>-3.6243590076495101E-3</v>
       </c>
       <c r="C4">
-        <v>5.2916254190199996E-3</v>
+        <v>1.7858279174582201E-3</v>
       </c>
       <c r="D4">
-        <v>-1.36530050273278</v>
+        <v>-2.02951189877695</v>
       </c>
       <c r="E4">
-        <v>0.17998271813233499</v>
+        <v>4.9269320195729202E-2</v>
       </c>
       <c r="F4">
-        <v>0.16576969817077999</v>
+        <v>0.120342483440084</v>
       </c>
       <c r="G4">
-        <v>8.0777187227949396E-2</v>
+        <v>4.0260688728785202E-2</v>
       </c>
       <c r="H4">
-        <v>1.33865667814592E-4</v>
+        <v>8.6258221655421995E-4</v>
       </c>
       <c r="J4">
-        <v>0.13299306901842101</v>
+        <v>4.5200600201136303E-2</v>
       </c>
       <c r="K4">
-        <v>171197</v>
+        <v>195468</v>
       </c>
       <c r="L4">
-        <v>-189879.933351491</v>
+        <v>-640285.76277670299</v>
       </c>
       <c r="M4">
-        <v>-30779.406782001799</v>
+        <v>-474188.37112214603</v>
       </c>
       <c r="N4">
-        <v>110769.966675745</v>
+        <v>336453.88138835097</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -611,40 +611,40 @@
         <v>17</v>
       </c>
       <c r="B5">
-        <v>-7.6281569240369898E-3</v>
+        <v>5.8960946938521499E-4</v>
       </c>
       <c r="C5">
-        <v>6.6437376836945899E-3</v>
+        <v>1.9698724236359398E-3</v>
       </c>
       <c r="D5">
-        <v>-1.1481725027703</v>
+        <v>0.29931353031326202</v>
       </c>
       <c r="E5">
-        <v>0.25789143861618002</v>
+        <v>0.76629016619230195</v>
       </c>
       <c r="F5">
-        <v>0.16576969817077999</v>
+        <v>0.120342483440084</v>
       </c>
       <c r="G5">
-        <v>8.0777187227949396E-2</v>
+        <v>4.0260688728785202E-2</v>
       </c>
       <c r="H5">
-        <v>1.33865667814592E-4</v>
+        <v>8.6258221655421995E-4</v>
       </c>
       <c r="J5">
-        <v>0.13299306901842101</v>
+        <v>4.5200600201136303E-2</v>
       </c>
       <c r="K5">
-        <v>171197</v>
+        <v>195468</v>
       </c>
       <c r="L5">
-        <v>-189879.933351491</v>
+        <v>-640285.76277670299</v>
       </c>
       <c r="M5">
-        <v>-30779.406782001799</v>
+        <v>-474188.37112214603</v>
       </c>
       <c r="N5">
-        <v>110769.966675745</v>
+        <v>336453.88138835097</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -652,40 +652,40 @@
         <v>18</v>
       </c>
       <c r="B6">
-        <v>-5.0848076364623396E-3</v>
+        <v>-2.7270248159282102E-3</v>
       </c>
       <c r="C6">
-        <v>5.6726232300132497E-3</v>
+        <v>2.4705954422439302E-3</v>
       </c>
       <c r="D6">
-        <v>-0.89637676085363105</v>
+        <v>-1.1037925389562699</v>
       </c>
       <c r="E6">
-        <v>0.37555143391900597</v>
+        <v>0.27644729320960698</v>
       </c>
       <c r="F6">
-        <v>0.16576969817077999</v>
+        <v>0.120342483440084</v>
       </c>
       <c r="G6">
-        <v>8.0777187227949396E-2</v>
+        <v>4.0260688728785202E-2</v>
       </c>
       <c r="H6">
-        <v>1.33865667814592E-4</v>
+        <v>8.6258221655421995E-4</v>
       </c>
       <c r="J6">
-        <v>0.13299306901842101</v>
+        <v>4.5200600201136303E-2</v>
       </c>
       <c r="K6">
-        <v>171197</v>
+        <v>195468</v>
       </c>
       <c r="L6">
-        <v>-189879.933351491</v>
+        <v>-640285.76277670299</v>
       </c>
       <c r="M6">
-        <v>-30779.406782001799</v>
+        <v>-474188.37112214603</v>
       </c>
       <c r="N6">
-        <v>110769.966675745</v>
+        <v>336453.88138835097</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -693,40 +693,40 @@
         <v>19</v>
       </c>
       <c r="B7">
-        <v>-7.8224594489881092E-3</v>
+        <v>-2.8320915381566001E-3</v>
       </c>
       <c r="C7">
-        <v>6.2381203895646503E-3</v>
+        <v>2.0576595569933801E-3</v>
       </c>
       <c r="D7">
-        <v>-1.25397699314585</v>
+        <v>-1.37636545779944</v>
       </c>
       <c r="E7">
-        <v>0.21731488426673301</v>
+        <v>0.17656011867685401</v>
       </c>
       <c r="F7">
-        <v>0.16576969817077999</v>
+        <v>0.120342483440084</v>
       </c>
       <c r="G7">
-        <v>8.0777187227949396E-2</v>
+        <v>4.0260688728785202E-2</v>
       </c>
       <c r="H7">
-        <v>1.33865667814592E-4</v>
+        <v>8.6258221655421995E-4</v>
       </c>
       <c r="J7">
-        <v>0.13299306901842101</v>
+        <v>4.5200600201136303E-2</v>
       </c>
       <c r="K7">
-        <v>171197</v>
+        <v>195468</v>
       </c>
       <c r="L7">
-        <v>-189879.933351491</v>
+        <v>-640285.76277670299</v>
       </c>
       <c r="M7">
-        <v>-30779.406782001799</v>
+        <v>-474188.37112214603</v>
       </c>
       <c r="N7">
-        <v>110769.966675745</v>
+        <v>336453.88138835097</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -734,40 +734,40 @@
         <v>20</v>
       </c>
       <c r="B8">
-        <v>-6.4898579158332598E-3</v>
+        <v>3.96133734743428E-4</v>
       </c>
       <c r="C8">
-        <v>5.5676417242931002E-3</v>
+        <v>2.0329836718201801E-3</v>
       </c>
       <c r="D8">
-        <v>-1.1656385660586399</v>
+        <v>0.194853377444375</v>
       </c>
       <c r="E8">
-        <v>0.250840193061655</v>
+        <v>0.84651928281802402</v>
       </c>
       <c r="F8">
-        <v>0.16576969817077999</v>
+        <v>0.120342483440084</v>
       </c>
       <c r="G8">
-        <v>8.0777187227949396E-2</v>
+        <v>4.0260688728785202E-2</v>
       </c>
       <c r="H8">
-        <v>1.33865667814592E-4</v>
+        <v>8.6258221655421995E-4</v>
       </c>
       <c r="J8">
-        <v>0.13299306901842101</v>
+        <v>4.5200600201136303E-2</v>
       </c>
       <c r="K8">
-        <v>171197</v>
+        <v>195468</v>
       </c>
       <c r="L8">
-        <v>-189879.933351491</v>
+        <v>-640285.76277670299</v>
       </c>
       <c r="M8">
-        <v>-30779.406782001799</v>
+        <v>-474188.37112214603</v>
       </c>
       <c r="N8">
-        <v>110769.966675745</v>
+        <v>336453.88138835097</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -775,40 +775,40 @@
         <v>21</v>
       </c>
       <c r="B9">
-        <v>-4.2414523995244601E-3</v>
+        <v>-2.2608465996978699E-3</v>
       </c>
       <c r="C9">
-        <v>6.9527185542300803E-3</v>
+        <v>2.2335460286963902E-3</v>
       </c>
       <c r="D9">
-        <v>-0.61004229733187398</v>
+        <v>-1.0122229721934199</v>
       </c>
       <c r="E9">
-        <v>0.54537221819430903</v>
+        <v>0.31767045811861899</v>
       </c>
       <c r="F9">
-        <v>0.16576969817077999</v>
+        <v>0.120342483440084</v>
       </c>
       <c r="G9">
-        <v>8.0777187227949396E-2</v>
+        <v>4.0260688728785202E-2</v>
       </c>
       <c r="H9">
-        <v>1.33865667814592E-4</v>
+        <v>8.6258221655421995E-4</v>
       </c>
       <c r="J9">
-        <v>0.13299306901842101</v>
+        <v>4.5200600201136303E-2</v>
       </c>
       <c r="K9">
-        <v>171197</v>
+        <v>195468</v>
       </c>
       <c r="L9">
-        <v>-189879.933351491</v>
+        <v>-640285.76277670299</v>
       </c>
       <c r="M9">
-        <v>-30779.406782001799</v>
+        <v>-474188.37112214603</v>
       </c>
       <c r="N9">
-        <v>110769.966675745</v>
+        <v>336453.88138835097</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -816,40 +816,40 @@
         <v>22</v>
       </c>
       <c r="B10">
-        <v>-6.0561862647284604E-3</v>
+        <v>1.5127836363933E-3</v>
       </c>
       <c r="C10">
-        <v>5.6560953220822496E-3</v>
+        <v>2.0414934515564E-3</v>
       </c>
       <c r="D10">
-        <v>-1.0707362446817701</v>
+        <v>0.74101811849554899</v>
       </c>
       <c r="E10">
-        <v>0.29086995062815502</v>
+        <v>0.46312112635267999</v>
       </c>
       <c r="F10">
-        <v>0.16576969817077999</v>
+        <v>0.120342483440084</v>
       </c>
       <c r="G10">
-        <v>8.0777187227949396E-2</v>
+        <v>4.0260688728785202E-2</v>
       </c>
       <c r="H10">
-        <v>1.33865667814592E-4</v>
+        <v>8.6258221655421995E-4</v>
       </c>
       <c r="J10">
-        <v>0.13299306901842101</v>
+        <v>4.5200600201136303E-2</v>
       </c>
       <c r="K10">
-        <v>171197</v>
+        <v>195468</v>
       </c>
       <c r="L10">
-        <v>-189879.933351491</v>
+        <v>-640285.76277670299</v>
       </c>
       <c r="M10">
-        <v>-30779.406782001799</v>
+        <v>-474188.37112214603</v>
       </c>
       <c r="N10">
-        <v>110769.966675745</v>
+        <v>336453.88138835097</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -857,40 +857,40 @@
         <v>23</v>
       </c>
       <c r="B11">
-        <v>-6.0147805214714103E-3</v>
+        <v>-1.09080992637637E-3</v>
       </c>
       <c r="C11">
-        <v>6.3013013943930196E-3</v>
+        <v>1.6970912910624701E-3</v>
       </c>
       <c r="D11">
-        <v>-0.95452988914693704</v>
+        <v>-0.64275265103356205</v>
       </c>
       <c r="E11">
-        <v>0.34569483277907898</v>
+        <v>0.524145672425121</v>
       </c>
       <c r="F11">
-        <v>0.16576969817077999</v>
+        <v>0.120342483440084</v>
       </c>
       <c r="G11">
-        <v>8.0777187227949396E-2</v>
+        <v>4.0260688728785202E-2</v>
       </c>
       <c r="H11">
-        <v>1.33865667814592E-4</v>
+        <v>8.6258221655421995E-4</v>
       </c>
       <c r="J11">
-        <v>0.13299306901842101</v>
+        <v>4.5200600201136303E-2</v>
       </c>
       <c r="K11">
-        <v>171197</v>
+        <v>195468</v>
       </c>
       <c r="L11">
-        <v>-189879.933351491</v>
+        <v>-640285.76277670299</v>
       </c>
       <c r="M11">
-        <v>-30779.406782001799</v>
+        <v>-474188.37112214603</v>
       </c>
       <c r="N11">
-        <v>110769.966675745</v>
+        <v>336453.88138835097</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
@@ -898,40 +898,40 @@
         <v>24</v>
       </c>
       <c r="B12">
-        <v>-2.0038727349803301E-4</v>
+        <v>4.2306261868586704E-3</v>
       </c>
       <c r="C12">
-        <v>5.7584910109660303E-3</v>
+        <v>2.5303910515562002E-3</v>
       </c>
       <c r="D12">
-        <v>-3.4798573639592503E-2</v>
+        <v>1.67192584097103</v>
       </c>
       <c r="E12">
-        <v>0.97241785861484398</v>
+        <v>0.102544697805553</v>
       </c>
       <c r="F12">
-        <v>0.16576969817077999</v>
+        <v>0.120342483440084</v>
       </c>
       <c r="G12">
-        <v>8.0777187227949396E-2</v>
+        <v>4.0260688728785202E-2</v>
       </c>
       <c r="H12">
-        <v>1.33865667814592E-4</v>
+        <v>8.6258221655421995E-4</v>
       </c>
       <c r="J12">
-        <v>0.13299306901842101</v>
+        <v>4.5200600201136303E-2</v>
       </c>
       <c r="K12">
-        <v>171197</v>
+        <v>195468</v>
       </c>
       <c r="L12">
-        <v>-189879.933351491</v>
+        <v>-640285.76277670299</v>
       </c>
       <c r="M12">
-        <v>-30779.406782001799</v>
+        <v>-474188.37112214603</v>
       </c>
       <c r="N12">
-        <v>110769.966675745</v>
+        <v>336453.88138835097</v>
       </c>
     </row>
   </sheetData>
@@ -999,40 +999,40 @@
         <v>14</v>
       </c>
       <c r="B2">
-        <v>2.0754080764720101E-3</v>
+        <v>2.18487887514695E-3</v>
       </c>
       <c r="C2">
-        <v>8.0981413433077708E-3</v>
+        <v>1.81001298345326E-3</v>
       </c>
       <c r="D2">
-        <v>0.25628202676248801</v>
+        <v>1.2071067418414301</v>
       </c>
       <c r="E2">
-        <v>0.79908014937793104</v>
+        <v>0.23466153830234199</v>
       </c>
       <c r="F2">
-        <v>0.165791537893999</v>
+        <v>0.121487904719204</v>
       </c>
       <c r="G2">
-        <v>8.0789419246941302E-2</v>
+        <v>4.1499686147462203E-2</v>
       </c>
       <c r="H2">
-        <v>1.60041652530363E-4</v>
+        <v>2.16358088654678E-3</v>
       </c>
       <c r="J2">
-        <v>0.132992184151806</v>
+        <v>4.5171414404161697E-2</v>
       </c>
       <c r="K2">
-        <v>171197</v>
+        <v>195468</v>
       </c>
       <c r="L2">
-        <v>-189880.41526008799</v>
+        <v>-640536.45178619097</v>
       </c>
       <c r="M2">
-        <v>-30759.787550160501</v>
+        <v>-474418.69382771</v>
       </c>
       <c r="N2">
-        <v>110772.20763004399</v>
+        <v>336581.22589309601</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -1040,40 +1040,40 @@
         <v>15</v>
       </c>
       <c r="B3">
-        <v>2.9887646969152201E-3</v>
+        <v>7.3061765650179397E-3</v>
       </c>
       <c r="C3">
-        <v>9.6418388862777194E-3</v>
+        <v>2.37934339442565E-3</v>
       </c>
       <c r="D3">
-        <v>0.30997870138328398</v>
+        <v>3.0706692367881598</v>
       </c>
       <c r="E3">
-        <v>0.75822753325708903</v>
+        <v>3.8795628759605901E-3</v>
       </c>
       <c r="F3">
-        <v>0.165791537893999</v>
+        <v>0.121487904719204</v>
       </c>
       <c r="G3">
-        <v>8.0789419246941302E-2</v>
+        <v>4.1499686147462203E-2</v>
       </c>
       <c r="H3">
-        <v>1.60041652530363E-4</v>
+        <v>2.16358088654678E-3</v>
       </c>
       <c r="J3">
-        <v>0.132992184151806</v>
+        <v>4.5171414404161697E-2</v>
       </c>
       <c r="K3">
-        <v>171197</v>
+        <v>195468</v>
       </c>
       <c r="L3">
-        <v>-189880.41526008799</v>
+        <v>-640536.45178619097</v>
       </c>
       <c r="M3">
-        <v>-30759.787550160501</v>
+        <v>-474418.69382771</v>
       </c>
       <c r="N3">
-        <v>110772.20763004399</v>
+        <v>336581.22589309601</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -1081,40 +1081,40 @@
         <v>16</v>
       </c>
       <c r="B4">
-        <v>-7.2892501684642102E-3</v>
+        <v>-4.1066185866857098E-3</v>
       </c>
       <c r="C4">
-        <v>5.3316029299771599E-3</v>
+        <v>1.79758368130858E-3</v>
       </c>
       <c r="D4">
-        <v>-1.3671779883457</v>
+        <v>-2.2845215103956802</v>
       </c>
       <c r="E4">
-        <v>0.17939839504447599</v>
+        <v>2.78645998356707E-2</v>
       </c>
       <c r="F4">
-        <v>0.165791537893999</v>
+        <v>0.121487904719204</v>
       </c>
       <c r="G4">
-        <v>8.0789419246941302E-2</v>
+        <v>4.1499686147462203E-2</v>
       </c>
       <c r="H4">
-        <v>1.60041652530363E-4</v>
+        <v>2.16358088654678E-3</v>
       </c>
       <c r="J4">
-        <v>0.132992184151806</v>
+        <v>4.5171414404161697E-2</v>
       </c>
       <c r="K4">
-        <v>171197</v>
+        <v>195468</v>
       </c>
       <c r="L4">
-        <v>-189880.41526008799</v>
+        <v>-640536.45178619097</v>
       </c>
       <c r="M4">
-        <v>-30759.787550160501</v>
+        <v>-474418.69382771</v>
       </c>
       <c r="N4">
-        <v>110772.20763004399</v>
+        <v>336581.22589309601</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -1122,40 +1122,40 @@
         <v>17</v>
       </c>
       <c r="B5">
-        <v>-7.7267642521355196E-3</v>
+        <v>-4.4278326487910902E-4</v>
       </c>
       <c r="C5">
-        <v>6.6712344575152798E-3</v>
+        <v>1.86537433906224E-3</v>
       </c>
       <c r="D5">
-        <v>-1.1582210610857999</v>
+        <v>-0.23736965584168199</v>
       </c>
       <c r="E5">
-        <v>0.25381746579333198</v>
+        <v>0.81361258223163901</v>
       </c>
       <c r="F5">
-        <v>0.165791537893999</v>
+        <v>0.121487904719204</v>
       </c>
       <c r="G5">
-        <v>8.0789419246941302E-2</v>
+        <v>4.1499686147462203E-2</v>
       </c>
       <c r="H5">
-        <v>1.60041652530363E-4</v>
+        <v>2.16358088654678E-3</v>
       </c>
       <c r="J5">
-        <v>0.132992184151806</v>
+        <v>4.5171414404161697E-2</v>
       </c>
       <c r="K5">
-        <v>171197</v>
+        <v>195468</v>
       </c>
       <c r="L5">
-        <v>-189880.41526008799</v>
+        <v>-640536.45178619097</v>
       </c>
       <c r="M5">
-        <v>-30759.787550160501</v>
+        <v>-474418.69382771</v>
       </c>
       <c r="N5">
-        <v>110772.20763004399</v>
+        <v>336581.22589309601</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -1163,40 +1163,40 @@
         <v>18</v>
       </c>
       <c r="B6">
-        <v>-5.2004548566814898E-3</v>
+        <v>-3.7616213482911001E-3</v>
       </c>
       <c r="C6">
-        <v>5.7063343420349103E-3</v>
+        <v>2.63943707207491E-3</v>
       </c>
       <c r="D6">
-        <v>-0.911347731305029</v>
+        <v>-1.4251604586784199</v>
       </c>
       <c r="E6">
-        <v>0.36771110175198302</v>
+        <v>0.16206524701892899</v>
       </c>
       <c r="F6">
-        <v>0.165791537893999</v>
+        <v>0.121487904719204</v>
       </c>
       <c r="G6">
-        <v>8.0789419246941302E-2</v>
+        <v>4.1499686147462203E-2</v>
       </c>
       <c r="H6">
-        <v>1.60041652530363E-4</v>
+        <v>2.16358088654678E-3</v>
       </c>
       <c r="J6">
-        <v>0.132992184151806</v>
+        <v>4.5171414404161697E-2</v>
       </c>
       <c r="K6">
-        <v>171197</v>
+        <v>195468</v>
       </c>
       <c r="L6">
-        <v>-189880.41526008799</v>
+        <v>-640536.45178619097</v>
       </c>
       <c r="M6">
-        <v>-30759.787550160501</v>
+        <v>-474418.69382771</v>
       </c>
       <c r="N6">
-        <v>110772.20763004399</v>
+        <v>336581.22589309601</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -1204,40 +1204,40 @@
         <v>19</v>
       </c>
       <c r="B7">
-        <v>-7.9746026579258205E-3</v>
+        <v>-3.8686351166731E-3</v>
       </c>
       <c r="C7">
-        <v>6.29028313621878E-3</v>
+        <v>2.1802231904949599E-3</v>
       </c>
       <c r="D7">
-        <v>-1.26776529533447</v>
+        <v>-1.7744215975405899</v>
       </c>
       <c r="E7">
-        <v>0.212398745122692</v>
+        <v>8.3800315557682706E-2</v>
       </c>
       <c r="F7">
-        <v>0.165791537893999</v>
+        <v>0.121487904719204</v>
       </c>
       <c r="G7">
-        <v>8.0789419246941302E-2</v>
+        <v>4.1499686147462203E-2</v>
       </c>
       <c r="H7">
-        <v>1.60041652530363E-4</v>
+        <v>2.16358088654678E-3</v>
       </c>
       <c r="J7">
-        <v>0.132992184151806</v>
+        <v>4.5171414404161697E-2</v>
       </c>
       <c r="K7">
-        <v>171197</v>
+        <v>195468</v>
       </c>
       <c r="L7">
-        <v>-189880.41526008799</v>
+        <v>-640536.45178619097</v>
       </c>
       <c r="M7">
-        <v>-30759.787550160501</v>
+        <v>-474418.69382771</v>
       </c>
       <c r="N7">
-        <v>110772.20763004399</v>
+        <v>336581.22589309601</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -1245,40 +1245,40 @@
         <v>20</v>
       </c>
       <c r="B8">
-        <v>-6.63698161900525E-3</v>
+        <v>-6.4259471536560304E-4</v>
       </c>
       <c r="C8">
-        <v>5.6184734944762999E-3</v>
+        <v>2.1208950963458699E-3</v>
       </c>
       <c r="D8">
-        <v>-1.1812784425396501</v>
+        <v>-0.30298279083804802</v>
       </c>
       <c r="E8">
-        <v>0.244645756925531</v>
+        <v>0.763513266982769</v>
       </c>
       <c r="F8">
-        <v>0.165791537893999</v>
+        <v>0.121487904719204</v>
       </c>
       <c r="G8">
-        <v>8.0789419246941302E-2</v>
+        <v>4.1499686147462203E-2</v>
       </c>
       <c r="H8">
-        <v>1.60041652530363E-4</v>
+        <v>2.16358088654678E-3</v>
       </c>
       <c r="J8">
-        <v>0.132992184151806</v>
+        <v>4.5171414404161697E-2</v>
       </c>
       <c r="K8">
-        <v>171197</v>
+        <v>195468</v>
       </c>
       <c r="L8">
-        <v>-189880.41526008799</v>
+        <v>-640536.45178619097</v>
       </c>
       <c r="M8">
-        <v>-30759.787550160501</v>
+        <v>-474418.69382771</v>
       </c>
       <c r="N8">
-        <v>110772.20763004399</v>
+        <v>336581.22589309601</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -1286,40 +1286,40 @@
         <v>21</v>
       </c>
       <c r="B9">
-        <v>-4.4080347197462304E-3</v>
+        <v>-3.3047869672561199E-3</v>
       </c>
       <c r="C9">
-        <v>7.01751381522804E-3</v>
+        <v>2.4205501151037898E-3</v>
       </c>
       <c r="D9">
-        <v>-0.62814763687116204</v>
+        <v>-1.3653040879570499</v>
       </c>
       <c r="E9">
-        <v>0.53356862235540203</v>
+        <v>0.17998160091753401</v>
       </c>
       <c r="F9">
-        <v>0.165791537893999</v>
+        <v>0.121487904719204</v>
       </c>
       <c r="G9">
-        <v>8.0789419246941302E-2</v>
+        <v>4.1499686147462203E-2</v>
       </c>
       <c r="H9">
-        <v>1.60041652530363E-4</v>
+        <v>2.16358088654678E-3</v>
       </c>
       <c r="J9">
-        <v>0.132992184151806</v>
+        <v>4.5171414404161697E-2</v>
       </c>
       <c r="K9">
-        <v>171197</v>
+        <v>195468</v>
       </c>
       <c r="L9">
-        <v>-189880.41526008799</v>
+        <v>-640536.45178619097</v>
       </c>
       <c r="M9">
-        <v>-30759.787550160501</v>
+        <v>-474418.69382771</v>
       </c>
       <c r="N9">
-        <v>110772.20763004399</v>
+        <v>336581.22589309601</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -1327,40 +1327,40 @@
         <v>22</v>
       </c>
       <c r="B10">
-        <v>-6.2506938259966702E-3</v>
+        <v>4.7424123924983102E-4</v>
       </c>
       <c r="C10">
-        <v>5.7159518737673097E-3</v>
+        <v>2.08141052153575E-3</v>
       </c>
       <c r="D10">
-        <v>-1.0935525637791801</v>
+        <v>0.227846085307532</v>
       </c>
       <c r="E10">
-        <v>0.28085991785666897</v>
+        <v>0.820956244234336</v>
       </c>
       <c r="F10">
-        <v>0.165791537893999</v>
+        <v>0.121487904719204</v>
       </c>
       <c r="G10">
-        <v>8.0789419246941302E-2</v>
+        <v>4.1499686147462203E-2</v>
       </c>
       <c r="H10">
-        <v>1.60041652530363E-4</v>
+        <v>2.16358088654678E-3</v>
       </c>
       <c r="J10">
-        <v>0.132992184151806</v>
+        <v>4.5171414404161697E-2</v>
       </c>
       <c r="K10">
-        <v>171197</v>
+        <v>195468</v>
       </c>
       <c r="L10">
-        <v>-189880.41526008799</v>
+        <v>-640536.45178619097</v>
       </c>
       <c r="M10">
-        <v>-30759.787550160501</v>
+        <v>-474418.69382771</v>
       </c>
       <c r="N10">
-        <v>110772.20763004399</v>
+        <v>336581.22589309601</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -1368,40 +1368,40 @@
         <v>23</v>
       </c>
       <c r="B11">
-        <v>-6.1724214976807803E-3</v>
+        <v>-2.1301291023145901E-3</v>
       </c>
       <c r="C11">
-        <v>6.3527838454787997E-3</v>
+        <v>1.7039488324097399E-3</v>
       </c>
       <c r="D11">
-        <v>-0.97160892733248305</v>
+        <v>-1.2501133025820601</v>
       </c>
       <c r="E11">
-        <v>0.33723291312554199</v>
+        <v>0.21870759560855299</v>
       </c>
       <c r="F11">
-        <v>0.165791537893999</v>
+        <v>0.121487904719204</v>
       </c>
       <c r="G11">
-        <v>8.0789419246941302E-2</v>
+        <v>4.1499686147462203E-2</v>
       </c>
       <c r="H11">
-        <v>1.60041652530363E-4</v>
+        <v>2.16358088654678E-3</v>
       </c>
       <c r="J11">
-        <v>0.132992184151806</v>
+        <v>4.5171414404161697E-2</v>
       </c>
       <c r="K11">
-        <v>171197</v>
+        <v>195468</v>
       </c>
       <c r="L11">
-        <v>-189880.41526008799</v>
+        <v>-640536.45178619097</v>
       </c>
       <c r="M11">
-        <v>-30759.787550160501</v>
+        <v>-474418.69382771</v>
       </c>
       <c r="N11">
-        <v>110772.20763004399</v>
+        <v>336581.22589309601</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
@@ -1409,40 +1409,40 @@
         <v>24</v>
       </c>
       <c r="B12">
-        <v>-3.75198253034024E-4</v>
+        <v>3.18115864472459E-3</v>
       </c>
       <c r="C12">
-        <v>5.7942405686485102E-3</v>
+        <v>2.5570689142607101E-3</v>
       </c>
       <c r="D12">
-        <v>-6.4753654700522398E-2</v>
+        <v>1.2440644939146299</v>
       </c>
       <c r="E12">
-        <v>0.94870092579343701</v>
+        <v>0.22090131606341901</v>
       </c>
       <c r="F12">
-        <v>0.165791537893999</v>
+        <v>0.121487904719204</v>
       </c>
       <c r="G12">
-        <v>8.0789419246941302E-2</v>
+        <v>4.1499686147462203E-2</v>
       </c>
       <c r="H12">
-        <v>1.60041652530363E-4</v>
+        <v>2.16358088654678E-3</v>
       </c>
       <c r="J12">
-        <v>0.132992184151806</v>
+        <v>4.5171414404161697E-2</v>
       </c>
       <c r="K12">
-        <v>171197</v>
+        <v>195468</v>
       </c>
       <c r="L12">
-        <v>-189880.41526008799</v>
+        <v>-640536.45178619097</v>
       </c>
       <c r="M12">
-        <v>-30759.787550160501</v>
+        <v>-474418.69382771</v>
       </c>
       <c r="N12">
-        <v>110772.20763004399</v>
+        <v>336581.22589309601</v>
       </c>
     </row>
   </sheetData>
@@ -1510,40 +1510,40 @@
         <v>14</v>
       </c>
       <c r="B2">
-        <v>5.1774484834897104E-3</v>
+        <v>3.4733809581792398E-3</v>
       </c>
       <c r="C2">
-        <v>7.0440672285685801E-3</v>
+        <v>5.69966637596858E-3</v>
       </c>
       <c r="D2">
-        <v>0.73500838585008998</v>
+        <v>0.60940074893225304</v>
       </c>
       <c r="E2">
-        <v>0.46673144672065298</v>
+        <v>0.54579292673948498</v>
       </c>
       <c r="F2">
-        <v>0.14021285295972499</v>
+        <v>0.13332766922022099</v>
       </c>
       <c r="G2">
-        <v>5.2616576076599801E-2</v>
+        <v>5.4428012968898799E-2</v>
       </c>
       <c r="H2">
-        <v>1.66620101802906E-4</v>
+        <v>7.2336757486635205E-5</v>
       </c>
       <c r="J2">
-        <v>0.11917150069611</v>
+        <v>0.120165694092569</v>
       </c>
       <c r="K2">
-        <v>171197</v>
+        <v>195468</v>
       </c>
       <c r="L2">
-        <v>-227451.98299465401</v>
+        <v>-258043.70679696399</v>
       </c>
       <c r="M2">
-        <v>-68351.456425165306</v>
+        <v>-91946.315142406893</v>
       </c>
       <c r="N2">
-        <v>129555.99149732701</v>
+        <v>145332.853398482</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -1551,40 +1551,40 @@
         <v>15</v>
       </c>
       <c r="B3">
-        <v>-3.4990089578568599E-3</v>
+        <v>-1.6080199331833299E-3</v>
       </c>
       <c r="C3">
-        <v>9.3552685532396693E-3</v>
+        <v>7.0999865801155198E-3</v>
       </c>
       <c r="D3">
-        <v>-0.374014806517251</v>
+        <v>-0.226482108809446</v>
       </c>
       <c r="E3">
-        <v>0.71041906631624396</v>
+        <v>0.82200936455584095</v>
       </c>
       <c r="F3">
-        <v>0.14021285295972499</v>
+        <v>0.13332766922022099</v>
       </c>
       <c r="G3">
-        <v>5.2616576076599801E-2</v>
+        <v>5.4428012968898799E-2</v>
       </c>
       <c r="H3">
-        <v>1.66620101802906E-4</v>
+        <v>7.2336757486635205E-5</v>
       </c>
       <c r="J3">
-        <v>0.11917150069611</v>
+        <v>0.120165694092569</v>
       </c>
       <c r="K3">
-        <v>171197</v>
+        <v>195468</v>
       </c>
       <c r="L3">
-        <v>-227451.98299465401</v>
+        <v>-258043.70679696399</v>
       </c>
       <c r="M3">
-        <v>-68351.456425165306</v>
+        <v>-91946.315142406893</v>
       </c>
       <c r="N3">
-        <v>129555.99149732701</v>
+        <v>145332.853398482</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -1592,40 +1592,40 @@
         <v>16</v>
       </c>
       <c r="B4">
-        <v>8.2459680926376608E-3</v>
+        <v>3.99164962625413E-3</v>
       </c>
       <c r="C4">
-        <v>5.07147638343279E-3</v>
+        <v>4.1691993422756498E-3</v>
       </c>
       <c r="D4">
-        <v>1.6259502103914201</v>
+        <v>0.95741395374858596</v>
       </c>
       <c r="E4">
-        <v>0.112014978977274</v>
+        <v>0.344256120015069</v>
       </c>
       <c r="F4">
-        <v>0.14021285295972499</v>
+        <v>0.13332766922022099</v>
       </c>
       <c r="G4">
-        <v>5.2616576076599801E-2</v>
+        <v>5.4428012968898799E-2</v>
       </c>
       <c r="H4">
-        <v>1.66620101802906E-4</v>
+        <v>7.2336757486635205E-5</v>
       </c>
       <c r="J4">
-        <v>0.11917150069611</v>
+        <v>0.120165694092569</v>
       </c>
       <c r="K4">
-        <v>171197</v>
+        <v>195468</v>
       </c>
       <c r="L4">
-        <v>-227451.98299465401</v>
+        <v>-258043.70679696399</v>
       </c>
       <c r="M4">
-        <v>-68351.456425165306</v>
+        <v>-91946.315142406893</v>
       </c>
       <c r="N4">
-        <v>129555.99149732701</v>
+        <v>145332.853398482</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -1633,40 +1633,40 @@
         <v>17</v>
       </c>
       <c r="B5">
-        <v>6.86993748633622E-3</v>
+        <v>4.4928500832283596E-3</v>
       </c>
       <c r="C5">
-        <v>6.0986833613371804E-3</v>
+        <v>5.5408449850349196E-3</v>
       </c>
       <c r="D5">
-        <v>1.12646239840691</v>
+        <v>0.81086009360719302</v>
       </c>
       <c r="E5">
-        <v>0.26685365677612599</v>
+        <v>0.42236690626256701</v>
       </c>
       <c r="F5">
-        <v>0.14021285295972499</v>
+        <v>0.13332766922022099</v>
       </c>
       <c r="G5">
-        <v>5.2616576076599801E-2</v>
+        <v>5.4428012968898799E-2</v>
       </c>
       <c r="H5">
-        <v>1.66620101802906E-4</v>
+        <v>7.2336757486635205E-5</v>
       </c>
       <c r="J5">
-        <v>0.11917150069611</v>
+        <v>0.120165694092569</v>
       </c>
       <c r="K5">
-        <v>171197</v>
+        <v>195468</v>
       </c>
       <c r="L5">
-        <v>-227451.98299465401</v>
+        <v>-258043.70679696399</v>
       </c>
       <c r="M5">
-        <v>-68351.456425165306</v>
+        <v>-91946.315142406893</v>
       </c>
       <c r="N5">
-        <v>129555.99149732701</v>
+        <v>145332.853398482</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -1674,40 +1674,40 @@
         <v>18</v>
       </c>
       <c r="B6">
-        <v>1.18496517971738E-2</v>
+        <v>8.2848448502364103E-3</v>
       </c>
       <c r="C6">
-        <v>5.1697665407571701E-3</v>
+        <v>4.7140367900244499E-3</v>
       </c>
       <c r="D6">
-        <v>2.2921057853878102</v>
+        <v>1.7574841307493101</v>
       </c>
       <c r="E6">
-        <v>2.7380678352086001E-2</v>
+        <v>8.6683225306748699E-2</v>
       </c>
       <c r="F6">
-        <v>0.14021285295972499</v>
+        <v>0.13332766922022099</v>
       </c>
       <c r="G6">
-        <v>5.2616576076599801E-2</v>
+        <v>5.4428012968898799E-2</v>
       </c>
       <c r="H6">
-        <v>1.66620101802906E-4</v>
+        <v>7.2336757486635205E-5</v>
       </c>
       <c r="J6">
-        <v>0.11917150069611</v>
+        <v>0.120165694092569</v>
       </c>
       <c r="K6">
-        <v>171197</v>
+        <v>195468</v>
       </c>
       <c r="L6">
-        <v>-227451.98299465401</v>
+        <v>-258043.70679696399</v>
       </c>
       <c r="M6">
-        <v>-68351.456425165306</v>
+        <v>-91946.315142406893</v>
       </c>
       <c r="N6">
-        <v>129555.99149732701</v>
+        <v>145332.853398482</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -1715,40 +1715,40 @@
         <v>19</v>
       </c>
       <c r="B7">
-        <v>6.2407011292216902E-3</v>
+        <v>2.7607507369068899E-3</v>
       </c>
       <c r="C7">
-        <v>6.0918752728455899E-3</v>
+        <v>5.3534085789385503E-3</v>
       </c>
       <c r="D7">
-        <v>1.0244302205331599</v>
+        <v>0.515699613843835</v>
       </c>
       <c r="E7">
-        <v>0.31194462880650897</v>
+        <v>0.60897555380924695</v>
       </c>
       <c r="F7">
-        <v>0.14021285295972499</v>
+        <v>0.13332766922022099</v>
       </c>
       <c r="G7">
-        <v>5.2616576076599801E-2</v>
+        <v>5.4428012968898799E-2</v>
       </c>
       <c r="H7">
-        <v>1.66620101802906E-4</v>
+        <v>7.2336757486635205E-5</v>
       </c>
       <c r="J7">
-        <v>0.11917150069611</v>
+        <v>0.120165694092569</v>
       </c>
       <c r="K7">
-        <v>171197</v>
+        <v>195468</v>
       </c>
       <c r="L7">
-        <v>-227451.98299465401</v>
+        <v>-258043.70679696399</v>
       </c>
       <c r="M7">
-        <v>-68351.456425165306</v>
+        <v>-91946.315142406893</v>
       </c>
       <c r="N7">
-        <v>129555.99149732701</v>
+        <v>145332.853398482</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -1756,40 +1756,40 @@
         <v>20</v>
       </c>
       <c r="B8">
-        <v>6.4321628479970996E-3</v>
+        <v>3.2952666135180999E-3</v>
       </c>
       <c r="C8">
-        <v>5.2370607077933604E-3</v>
+        <v>4.7569198535121204E-3</v>
       </c>
       <c r="D8">
-        <v>1.2282009330969299</v>
+        <v>0.69273116112838096</v>
       </c>
       <c r="E8">
-        <v>0.22673231896409099</v>
+        <v>0.49258291203086502</v>
       </c>
       <c r="F8">
-        <v>0.14021285295972499</v>
+        <v>0.13332766922022099</v>
       </c>
       <c r="G8">
-        <v>5.2616576076599801E-2</v>
+        <v>5.4428012968898799E-2</v>
       </c>
       <c r="H8">
-        <v>1.66620101802906E-4</v>
+        <v>7.2336757486635205E-5</v>
       </c>
       <c r="J8">
-        <v>0.11917150069611</v>
+        <v>0.120165694092569</v>
       </c>
       <c r="K8">
-        <v>171197</v>
+        <v>195468</v>
       </c>
       <c r="L8">
-        <v>-227451.98299465401</v>
+        <v>-258043.70679696399</v>
       </c>
       <c r="M8">
-        <v>-68351.456425165306</v>
+        <v>-91946.315142406893</v>
       </c>
       <c r="N8">
-        <v>129555.99149732701</v>
+        <v>145332.853398482</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -1797,40 +1797,40 @@
         <v>21</v>
       </c>
       <c r="B9">
-        <v>5.8248518055791596E-3</v>
+        <v>2.7481548292236299E-3</v>
       </c>
       <c r="C9">
-        <v>5.23056628036009E-3</v>
+        <v>4.8649388219680796E-3</v>
       </c>
       <c r="D9">
-        <v>1.11361781752972</v>
+        <v>0.56488990505164904</v>
       </c>
       <c r="E9">
-        <v>0.27225974190639102</v>
+        <v>0.57538380443944204</v>
       </c>
       <c r="F9">
-        <v>0.14021285295972499</v>
+        <v>0.13332766922022099</v>
       </c>
       <c r="G9">
-        <v>5.2616576076599801E-2</v>
+        <v>5.4428012968898799E-2</v>
       </c>
       <c r="H9">
-        <v>1.66620101802906E-4</v>
+        <v>7.2336757486635205E-5</v>
       </c>
       <c r="J9">
-        <v>0.11917150069611</v>
+        <v>0.120165694092569</v>
       </c>
       <c r="K9">
-        <v>171197</v>
+        <v>195468</v>
       </c>
       <c r="L9">
-        <v>-227451.98299465401</v>
+        <v>-258043.70679696399</v>
       </c>
       <c r="M9">
-        <v>-68351.456425165306</v>
+        <v>-91946.315142406893</v>
       </c>
       <c r="N9">
-        <v>129555.99149732701</v>
+        <v>145332.853398482</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -1838,40 +1838,40 @@
         <v>22</v>
       </c>
       <c r="B10">
-        <v>5.2199290522189903E-3</v>
+        <v>1.2428466371782001E-3</v>
       </c>
       <c r="C10">
-        <v>5.1608644308993703E-3</v>
+        <v>4.28989388069207E-3</v>
       </c>
       <c r="D10">
-        <v>1.0114447147586301</v>
+        <v>0.28971500735064698</v>
       </c>
       <c r="E10">
-        <v>0.31803791279270599</v>
+        <v>0.77356901551240898</v>
       </c>
       <c r="F10">
-        <v>0.14021285295972499</v>
+        <v>0.13332766922022099</v>
       </c>
       <c r="G10">
-        <v>5.2616576076599801E-2</v>
+        <v>5.4428012968898799E-2</v>
       </c>
       <c r="H10">
-        <v>1.66620101802906E-4</v>
+        <v>7.2336757486635205E-5</v>
       </c>
       <c r="J10">
-        <v>0.11917150069611</v>
+        <v>0.120165694092569</v>
       </c>
       <c r="K10">
-        <v>171197</v>
+        <v>195468</v>
       </c>
       <c r="L10">
-        <v>-227451.98299465401</v>
+        <v>-258043.70679696399</v>
       </c>
       <c r="M10">
-        <v>-68351.456425165306</v>
+        <v>-91946.315142406893</v>
       </c>
       <c r="N10">
-        <v>129555.99149732701</v>
+        <v>145332.853398482</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -1879,40 +1879,40 @@
         <v>23</v>
       </c>
       <c r="B11">
-        <v>4.95831232426798E-3</v>
+        <v>2.2636120820609699E-3</v>
       </c>
       <c r="C11">
-        <v>5.9262769640711097E-3</v>
+        <v>5.6745340910720797E-3</v>
       </c>
       <c r="D11">
-        <v>0.83666564258276299</v>
+        <v>0.39890712536600598</v>
       </c>
       <c r="E11">
-        <v>0.407878031197702</v>
+        <v>0.69213752850451404</v>
       </c>
       <c r="F11">
-        <v>0.14021285295972499</v>
+        <v>0.13332766922022099</v>
       </c>
       <c r="G11">
-        <v>5.2616576076599801E-2</v>
+        <v>5.4428012968898799E-2</v>
       </c>
       <c r="H11">
-        <v>1.66620101802906E-4</v>
+        <v>7.2336757486635205E-5</v>
       </c>
       <c r="J11">
-        <v>0.11917150069611</v>
+        <v>0.120165694092569</v>
       </c>
       <c r="K11">
-        <v>171197</v>
+        <v>195468</v>
       </c>
       <c r="L11">
-        <v>-227451.98299465401</v>
+        <v>-258043.70679696399</v>
       </c>
       <c r="M11">
-        <v>-68351.456425165306</v>
+        <v>-91946.315142406893</v>
       </c>
       <c r="N11">
-        <v>129555.99149732701</v>
+        <v>145332.853398482</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
@@ -1920,40 +1920,40 @@
         <v>24</v>
       </c>
       <c r="B12">
-        <v>8.5981519251335705E-3</v>
+        <v>3.75291072420317E-3</v>
       </c>
       <c r="C12">
-        <v>5.9171604410885202E-3</v>
+        <v>5.3224078842796802E-3</v>
       </c>
       <c r="D12">
-        <v>1.45308750890518</v>
+        <v>0.70511520458396404</v>
       </c>
       <c r="E12">
-        <v>0.15419901064666799</v>
+        <v>0.48492873772872802</v>
       </c>
       <c r="F12">
-        <v>0.14021285295972499</v>
+        <v>0.13332766922022099</v>
       </c>
       <c r="G12">
-        <v>5.2616576076599801E-2</v>
+        <v>5.4428012968898799E-2</v>
       </c>
       <c r="H12">
-        <v>1.66620101802906E-4</v>
+        <v>7.2336757486635205E-5</v>
       </c>
       <c r="J12">
-        <v>0.11917150069611</v>
+        <v>0.120165694092569</v>
       </c>
       <c r="K12">
-        <v>171197</v>
+        <v>195468</v>
       </c>
       <c r="L12">
-        <v>-227451.98299465401</v>
+        <v>-258043.70679696399</v>
       </c>
       <c r="M12">
-        <v>-68351.456425165306</v>
+        <v>-91946.315142406893</v>
       </c>
       <c r="N12">
-        <v>129555.99149732701</v>
+        <v>145332.853398482</v>
       </c>
     </row>
   </sheetData>
@@ -1967,7 +1967,7 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2021,40 +2021,40 @@
         <v>14</v>
       </c>
       <c r="B2">
-        <v>4.7064056456545501E-3</v>
+        <v>3.6146623158954099E-3</v>
       </c>
       <c r="C2">
-        <v>6.9902449314523099E-3</v>
+        <v>5.7181857229960699E-3</v>
       </c>
       <c r="D2">
-        <v>0.67328193672846504</v>
+        <v>0.63213447254061705</v>
       </c>
       <c r="E2">
-        <v>0.50473848796315901</v>
+        <v>0.53098757160466503</v>
       </c>
       <c r="F2">
-        <v>0.14054961588783799</v>
+        <v>0.13359455188067301</v>
       </c>
       <c r="G2">
-        <v>5.2975458060272602E-2</v>
+        <v>5.4708639292565801E-2</v>
       </c>
       <c r="H2">
-        <v>5.5823658246134699E-4</v>
+        <v>3.8025400088803602E-4</v>
       </c>
       <c r="J2">
-        <v>0.119148926649225</v>
+        <v>0.120147861415749</v>
       </c>
       <c r="K2">
-        <v>171197</v>
+        <v>195468</v>
       </c>
       <c r="L2">
-        <v>-227515.05086936001</v>
+        <v>-258099.908388415</v>
       </c>
       <c r="M2">
-        <v>-68394.423159432597</v>
+        <v>-91982.150429933899</v>
       </c>
       <c r="N2">
-        <v>129589.52543468001</v>
+        <v>145362.954194208</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -2062,40 +2062,40 @@
         <v>15</v>
       </c>
       <c r="B3">
-        <v>-3.1066753887677399E-3</v>
+        <v>-1.84873295806783E-3</v>
       </c>
       <c r="C3">
-        <v>9.3545633465946503E-3</v>
+        <v>7.1280816463407497E-3</v>
       </c>
       <c r="D3">
-        <v>-0.33210266194826399</v>
+        <v>-0.259359116490604</v>
       </c>
       <c r="E3">
-        <v>0.74159007732330795</v>
+        <v>0.79672236095764104</v>
       </c>
       <c r="F3">
-        <v>0.14054961588783799</v>
+        <v>0.13359455188067301</v>
       </c>
       <c r="G3">
-        <v>5.2975458060272602E-2</v>
+        <v>5.4708639292565801E-2</v>
       </c>
       <c r="H3">
-        <v>5.5823658246134699E-4</v>
+        <v>3.8025400088803602E-4</v>
       </c>
       <c r="J3">
-        <v>0.119148926649225</v>
+        <v>0.120147861415749</v>
       </c>
       <c r="K3">
-        <v>171197</v>
+        <v>195468</v>
       </c>
       <c r="L3">
-        <v>-227515.05086936001</v>
+        <v>-258099.908388415</v>
       </c>
       <c r="M3">
-        <v>-68394.423159432597</v>
+        <v>-91982.150429933899</v>
       </c>
       <c r="N3">
-        <v>129589.52543468001</v>
+        <v>145362.954194208</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -2103,40 +2103,40 @@
         <v>16</v>
       </c>
       <c r="B4">
-        <v>9.2124679356091893E-3</v>
+        <v>2.9014337993257598E-3</v>
       </c>
       <c r="C4">
-        <v>5.23723841884325E-3</v>
+        <v>4.18689989945657E-3</v>
       </c>
       <c r="D4">
-        <v>1.7590316114812199</v>
+        <v>0.69297902242715204</v>
       </c>
       <c r="E4">
-        <v>8.6416421583929495E-2</v>
+        <v>0.49242905979613899</v>
       </c>
       <c r="F4">
-        <v>0.14054961588783799</v>
+        <v>0.13359455188067301</v>
       </c>
       <c r="G4">
-        <v>5.2975458060272602E-2</v>
+        <v>5.4708639292565801E-2</v>
       </c>
       <c r="H4">
-        <v>5.5823658246134699E-4</v>
+        <v>3.8025400088803602E-4</v>
       </c>
       <c r="J4">
-        <v>0.119148926649225</v>
+        <v>0.120147861415749</v>
       </c>
       <c r="K4">
-        <v>171197</v>
+        <v>195468</v>
       </c>
       <c r="L4">
-        <v>-227515.05086936001</v>
+        <v>-258099.908388415</v>
       </c>
       <c r="M4">
-        <v>-68394.423159432597</v>
+        <v>-91982.150429933899</v>
       </c>
       <c r="N4">
-        <v>129589.52543468001</v>
+        <v>145362.954194208</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -2144,40 +2144,40 @@
         <v>17</v>
       </c>
       <c r="B5">
-        <v>7.0944961002705796E-3</v>
+        <v>3.70727877722437E-3</v>
       </c>
       <c r="C5">
-        <v>6.0998338793875999E-3</v>
+        <v>5.6190483500755299E-3</v>
       </c>
       <c r="D5">
-        <v>1.16306382117128</v>
+        <v>0.65976986604404897</v>
       </c>
       <c r="E5">
-        <v>0.25187077416381698</v>
+        <v>0.51327918200086697</v>
       </c>
       <c r="F5">
-        <v>0.14054961588783799</v>
+        <v>0.13359455188067301</v>
       </c>
       <c r="G5">
-        <v>5.2975458060272602E-2</v>
+        <v>5.4708639292565801E-2</v>
       </c>
       <c r="H5">
-        <v>5.5823658246134699E-4</v>
+        <v>3.8025400088803602E-4</v>
       </c>
       <c r="J5">
-        <v>0.119148926649225</v>
+        <v>0.120147861415749</v>
       </c>
       <c r="K5">
-        <v>171197</v>
+        <v>195468</v>
       </c>
       <c r="L5">
-        <v>-227515.05086936001</v>
+        <v>-258099.908388415</v>
       </c>
       <c r="M5">
-        <v>-68394.423159432597</v>
+        <v>-91982.150429933899</v>
       </c>
       <c r="N5">
-        <v>129589.52543468001</v>
+        <v>145362.954194208</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -2185,40 +2185,40 @@
         <v>18</v>
       </c>
       <c r="B6">
-        <v>1.20785991642023E-2</v>
+        <v>7.5010308747387603E-3</v>
       </c>
       <c r="C6">
-        <v>5.1779835899659604E-3</v>
+        <v>4.6940013318095102E-3</v>
       </c>
       <c r="D6">
-        <v>2.3326839404451798</v>
+        <v>1.5980035676400499</v>
       </c>
       <c r="E6">
-        <v>2.49172957910603E-2</v>
+        <v>0.118113903100377</v>
       </c>
       <c r="F6">
-        <v>0.14054961588783799</v>
+        <v>0.13359455188067301</v>
       </c>
       <c r="G6">
-        <v>5.2975458060272602E-2</v>
+        <v>5.4708639292565801E-2</v>
       </c>
       <c r="H6">
-        <v>5.5823658246134699E-4</v>
+        <v>3.8025400088803602E-4</v>
       </c>
       <c r="J6">
-        <v>0.119148926649225</v>
+        <v>0.120147861415749</v>
       </c>
       <c r="K6">
-        <v>171197</v>
+        <v>195468</v>
       </c>
       <c r="L6">
-        <v>-227515.05086936001</v>
+        <v>-258099.908388415</v>
       </c>
       <c r="M6">
-        <v>-68394.423159432597</v>
+        <v>-91982.150429933899</v>
       </c>
       <c r="N6">
-        <v>129589.52543468001</v>
+        <v>145362.954194208</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -2226,40 +2226,40 @@
         <v>19</v>
       </c>
       <c r="B7">
-        <v>6.4134772626746701E-3</v>
+        <v>1.9971945963034501E-3</v>
       </c>
       <c r="C7">
-        <v>6.1060736870176598E-3</v>
+        <v>5.4539118781120098E-3</v>
       </c>
       <c r="D7">
-        <v>1.05034390205781</v>
+        <v>0.36619487827053399</v>
       </c>
       <c r="E7">
-        <v>0.30002522271429999</v>
+        <v>0.71619875835523095</v>
       </c>
       <c r="F7">
-        <v>0.14054961588783799</v>
+        <v>0.13359455188067301</v>
       </c>
       <c r="G7">
-        <v>5.2975458060272602E-2</v>
+        <v>5.4708639292565801E-2</v>
       </c>
       <c r="H7">
-        <v>5.5823658246134699E-4</v>
+        <v>3.8025400088803602E-4</v>
       </c>
       <c r="J7">
-        <v>0.119148926649225</v>
+        <v>0.120147861415749</v>
       </c>
       <c r="K7">
-        <v>171197</v>
+        <v>195468</v>
       </c>
       <c r="L7">
-        <v>-227515.05086936001</v>
+        <v>-258099.908388415</v>
       </c>
       <c r="M7">
-        <v>-68394.423159432597</v>
+        <v>-91982.150429933899</v>
       </c>
       <c r="N7">
-        <v>129589.52543468001</v>
+        <v>145362.954194208</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -2267,40 +2267,40 @@
         <v>20</v>
       </c>
       <c r="B8">
-        <v>6.5965223916822696E-3</v>
+        <v>2.5076880786858999E-3</v>
       </c>
       <c r="C8">
-        <v>5.2340380097466799E-3</v>
+        <v>4.7458290771905196E-3</v>
       </c>
       <c r="D8">
-        <v>1.2603122826770501</v>
+        <v>0.52839831310790197</v>
       </c>
       <c r="E8">
-        <v>0.21504561352417201</v>
+        <v>0.60021710965383601</v>
       </c>
       <c r="F8">
-        <v>0.14054961588783799</v>
+        <v>0.13359455188067301</v>
       </c>
       <c r="G8">
-        <v>5.2975458060272602E-2</v>
+        <v>5.4708639292565801E-2</v>
       </c>
       <c r="H8">
-        <v>5.5823658246134699E-4</v>
+        <v>3.8025400088803602E-4</v>
       </c>
       <c r="J8">
-        <v>0.119148926649225</v>
+        <v>0.120147861415749</v>
       </c>
       <c r="K8">
-        <v>171197</v>
+        <v>195468</v>
       </c>
       <c r="L8">
-        <v>-227515.05086936001</v>
+        <v>-258099.908388415</v>
       </c>
       <c r="M8">
-        <v>-68394.423159432597</v>
+        <v>-91982.150429933899</v>
       </c>
       <c r="N8">
-        <v>129589.52543468001</v>
+        <v>145362.954194208</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -2308,40 +2308,40 @@
         <v>21</v>
       </c>
       <c r="B9">
-        <v>5.98041599179947E-3</v>
+        <v>1.93966359692637E-3</v>
       </c>
       <c r="C9">
-        <v>5.2030662497715404E-3</v>
+        <v>4.7723629519767496E-3</v>
       </c>
       <c r="D9">
-        <v>1.1494022379711299</v>
+        <v>0.40643673091187299</v>
       </c>
       <c r="E9">
-        <v>0.257390353312689</v>
+        <v>0.68664350419758902</v>
       </c>
       <c r="F9">
-        <v>0.14054961588783799</v>
+        <v>0.13359455188067301</v>
       </c>
       <c r="G9">
-        <v>5.2975458060272602E-2</v>
+        <v>5.4708639292565801E-2</v>
       </c>
       <c r="H9">
-        <v>5.5823658246134699E-4</v>
+        <v>3.8025400088803602E-4</v>
       </c>
       <c r="J9">
-        <v>0.119148926649225</v>
+        <v>0.120147861415749</v>
       </c>
       <c r="K9">
-        <v>171197</v>
+        <v>195468</v>
       </c>
       <c r="L9">
-        <v>-227515.05086936001</v>
+        <v>-258099.908388415</v>
       </c>
       <c r="M9">
-        <v>-68394.423159432597</v>
+        <v>-91982.150429933899</v>
       </c>
       <c r="N9">
-        <v>129589.52543468001</v>
+        <v>145362.954194208</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -2349,40 +2349,40 @@
         <v>22</v>
       </c>
       <c r="B10">
-        <v>5.3628189973284196E-3</v>
+        <v>2.1102996046054701E-4</v>
       </c>
       <c r="C10">
-        <v>5.1915895949300999E-3</v>
+        <v>4.3434630558028299E-3</v>
       </c>
       <c r="D10">
-        <v>1.03298207596485</v>
+        <v>4.8585646464429401E-2</v>
       </c>
       <c r="E10">
-        <v>0.30797570672520802</v>
+        <v>0.96149747602596003</v>
       </c>
       <c r="F10">
-        <v>0.14054961588783799</v>
+        <v>0.13359455188067301</v>
       </c>
       <c r="G10">
-        <v>5.2975458060272602E-2</v>
+        <v>5.4708639292565801E-2</v>
       </c>
       <c r="H10">
-        <v>5.5823658246134699E-4</v>
+        <v>3.8025400088803602E-4</v>
       </c>
       <c r="J10">
-        <v>0.119148926649225</v>
+        <v>0.120147861415749</v>
       </c>
       <c r="K10">
-        <v>171197</v>
+        <v>195468</v>
       </c>
       <c r="L10">
-        <v>-227515.05086936001</v>
+        <v>-258099.908388415</v>
       </c>
       <c r="M10">
-        <v>-68394.423159432597</v>
+        <v>-91982.150429933899</v>
       </c>
       <c r="N10">
-        <v>129589.52543468001</v>
+        <v>145362.954194208</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -2390,40 +2390,40 @@
         <v>23</v>
       </c>
       <c r="B11">
-        <v>5.1236736123116003E-3</v>
+        <v>1.2327681499535201E-3</v>
       </c>
       <c r="C11">
-        <v>5.9376082628846902E-3</v>
+        <v>5.7170698708580801E-3</v>
       </c>
       <c r="D11">
-        <v>0.86291876888192498</v>
+        <v>0.21562936570661401</v>
       </c>
       <c r="E11">
-        <v>0.39345779460443803</v>
+        <v>0.83040043906551897</v>
       </c>
       <c r="F11">
-        <v>0.14054961588783799</v>
+        <v>0.13359455188067301</v>
       </c>
       <c r="G11">
-        <v>5.2975458060272602E-2</v>
+        <v>5.4708639292565801E-2</v>
       </c>
       <c r="H11">
-        <v>5.5823658246134699E-4</v>
+        <v>3.8025400088803602E-4</v>
       </c>
       <c r="J11">
-        <v>0.119148926649225</v>
+        <v>0.120147861415749</v>
       </c>
       <c r="K11">
-        <v>171197</v>
+        <v>195468</v>
       </c>
       <c r="L11">
-        <v>-227515.05086936001</v>
+        <v>-258099.908388415</v>
       </c>
       <c r="M11">
-        <v>-68394.423159432597</v>
+        <v>-91982.150429933899</v>
       </c>
       <c r="N11">
-        <v>129589.52543468001</v>
+        <v>145362.954194208</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
@@ -2431,40 +2431,40 @@
         <v>24</v>
       </c>
       <c r="B12">
-        <v>8.7480114483982196E-3</v>
+        <v>2.7195200651614002E-3</v>
       </c>
       <c r="C12">
-        <v>5.8583916264404899E-3</v>
+        <v>5.2048176030234901E-3</v>
       </c>
       <c r="D12">
-        <v>1.49324456373249</v>
+        <v>0.52250055094757297</v>
       </c>
       <c r="E12">
-        <v>0.14341993634241901</v>
+        <v>0.60427751011851905</v>
       </c>
       <c r="F12">
-        <v>0.14054961588783799</v>
+        <v>0.13359455188067301</v>
       </c>
       <c r="G12">
-        <v>5.2975458060272602E-2</v>
+        <v>5.4708639292565801E-2</v>
       </c>
       <c r="H12">
-        <v>5.5823658246134699E-4</v>
+        <v>3.8025400088803602E-4</v>
       </c>
       <c r="J12">
-        <v>0.119148926649225</v>
+        <v>0.120147861415749</v>
       </c>
       <c r="K12">
-        <v>171197</v>
+        <v>195468</v>
       </c>
       <c r="L12">
-        <v>-227515.05086936001</v>
+        <v>-258099.908388415</v>
       </c>
       <c r="M12">
-        <v>-68394.423159432597</v>
+        <v>-91982.150429933899</v>
       </c>
       <c r="N12">
-        <v>129589.52543468001</v>
+        <v>145362.954194208</v>
       </c>
     </row>
   </sheetData>
